--- a/DATA INEI.xlsx
+++ b/DATA INEI.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="445">
   <si>
     <t>CODIGO</t>
   </si>
@@ -48,9 +48,6 @@
     <t>AMAZONASBONGARA</t>
   </si>
   <si>
-    <t>Bongará</t>
-  </si>
-  <si>
     <t>AMAZONASCHACHAPOYAS</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>AMAZONASRODRIGUEZ DE MENDOZA</t>
   </si>
   <si>
-    <t>Rodríguez de Mendoza</t>
-  </si>
-  <si>
     <t>AMAZONASUTCUBAMBA</t>
   </si>
   <si>
@@ -84,9 +78,6 @@
     <t>ANCASHAIJA</t>
   </si>
   <si>
-    <t>Áncash</t>
-  </si>
-  <si>
     <t>Aija</t>
   </si>
   <si>
@@ -99,9 +90,6 @@
     <t>ANCASHASUNCION</t>
   </si>
   <si>
-    <t>Asunción</t>
-  </si>
-  <si>
     <t>ANCASHBOLOGNESI</t>
   </si>
   <si>
@@ -117,9 +105,6 @@
     <t>ANCASHCARLOS FERMIN FITZCARRALD</t>
   </si>
   <si>
-    <t>Carlos Fermín Fitzcarrald</t>
-  </si>
-  <si>
     <t>ANCASHCASMA</t>
   </si>
   <si>
@@ -207,9 +192,6 @@
     <t>APURIMACABANCAY</t>
   </si>
   <si>
-    <t>Apurímac</t>
-  </si>
-  <si>
     <t>Abancay</t>
   </si>
   <si>
@@ -258,15 +240,9 @@
     <t>AREQUIPACAMANA</t>
   </si>
   <si>
-    <t>Camaná</t>
-  </si>
-  <si>
     <t>AREQUIPACARAVELI</t>
   </si>
   <si>
-    <t>Caravelí</t>
-  </si>
-  <si>
     <t>AREQUIPACASTILLA</t>
   </si>
   <si>
@@ -294,9 +270,6 @@
     <t>AREQUIPALA UNION</t>
   </si>
   <si>
-    <t>La Unión</t>
-  </si>
-  <si>
     <t>AYACUCHOCANGALLO</t>
   </si>
   <si>
@@ -345,9 +318,6 @@
     <t>AYACUCHOPAUCAR DEL SARA SARA</t>
   </si>
   <si>
-    <t>Páucar del Sara Sara</t>
-  </si>
-  <si>
     <t>AYACUCHOSUCRE</t>
   </si>
   <si>
@@ -357,15 +327,9 @@
     <t>AYACUCHOVICTOR FAJARDO</t>
   </si>
   <si>
-    <t>Víctor Fajardo</t>
-  </si>
-  <si>
     <t>AYACUCHOVILCAS HUAMAN</t>
   </si>
   <si>
-    <t>Vilcas Huamán</t>
-  </si>
-  <si>
     <t>CAJAMARCACAJABAMBA</t>
   </si>
   <si>
@@ -381,9 +345,6 @@
     <t>CAJAMARCACELENDIN</t>
   </si>
   <si>
-    <t>Celendín</t>
-  </si>
-  <si>
     <t>CAJAMARCACHOTA</t>
   </si>
   <si>
@@ -393,9 +354,6 @@
     <t>CAJAMARCACONTUMAZA</t>
   </si>
   <si>
-    <t>Contumazá</t>
-  </si>
-  <si>
     <t>CAJAMARCACUTERVO</t>
   </si>
   <si>
@@ -411,9 +369,6 @@
     <t>CAJAMARCAJAEN</t>
   </si>
   <si>
-    <t>Jaén</t>
-  </si>
-  <si>
     <t>CAJAMARCASAN IGNACIO</t>
   </si>
   <si>
@@ -480,9 +435,6 @@
     <t>CUSCOCHUMBIVILCAS</t>
   </si>
   <si>
-    <t>Chumbivílcas</t>
-  </si>
-  <si>
     <t>CUSCOCUSCO</t>
   </si>
   <si>
@@ -495,9 +447,6 @@
     <t>CUSCOLA CONVENCION</t>
   </si>
   <si>
-    <t>La Convención</t>
-  </si>
-  <si>
     <t>CUSCOPARURO</t>
   </si>
   <si>
@@ -555,9 +504,6 @@
     <t>HUANCAVELICAHUAYTARA</t>
   </si>
   <si>
-    <t>Huaytará</t>
-  </si>
-  <si>
     <t>HUANCAVELICATAYACAJA</t>
   </si>
   <si>
@@ -567,9 +513,6 @@
     <t>HUANUCOAMBO</t>
   </si>
   <si>
-    <t>Huánuco</t>
-  </si>
-  <si>
     <t>Ambo</t>
   </si>
   <si>
@@ -588,9 +531,6 @@
     <t>HUANUCOHUAMALIES</t>
   </si>
   <si>
-    <t>Huamalíes</t>
-  </si>
-  <si>
     <t>HUANUCOHUANUCO</t>
   </si>
   <si>
@@ -609,9 +549,6 @@
     <t>HUANUCOMARANON</t>
   </si>
   <si>
-    <t>Marañón</t>
-  </si>
-  <si>
     <t>HUANUCOPACHITEA</t>
   </si>
   <si>
@@ -663,9 +600,6 @@
     <t>JUNINCHANCHAMAYO</t>
   </si>
   <si>
-    <t>Junín</t>
-  </si>
-  <si>
     <t>Chanchamayo</t>
   </si>
   <si>
@@ -678,9 +612,6 @@
     <t>JUNINCONCEPCION</t>
   </si>
   <si>
-    <t>Concepción</t>
-  </si>
-  <si>
     <t>JUNINHUANCAYO</t>
   </si>
   <si>
@@ -726,27 +657,15 @@
     <t>LA LIBERTADBOLIVAR</t>
   </si>
   <si>
-    <t>Bolívar</t>
-  </si>
-  <si>
     <t>LA LIBERTADCHEPEN</t>
   </si>
   <si>
-    <t>Chepén</t>
-  </si>
-  <si>
     <t>LA LIBERTADGRAN CHIMU</t>
   </si>
   <si>
-    <t>Gran Chimú</t>
-  </si>
-  <si>
     <t>LA LIBERTADJULCAN</t>
   </si>
   <si>
-    <t>Julcán</t>
-  </si>
-  <si>
     <t>LA LIBERTADOTUZCO</t>
   </si>
   <si>
@@ -768,9 +687,6 @@
     <t>LA LIBERTADSANCHEZ CARRION</t>
   </si>
   <si>
-    <t>Sánchez Carrión</t>
-  </si>
-  <si>
     <t>LA LIBERTADSANTIAGO DE CHUCO</t>
   </si>
   <si>
@@ -786,9 +702,6 @@
     <t>LA LIBERTADVIRU</t>
   </si>
   <si>
-    <t>Virú</t>
-  </si>
-  <si>
     <t>LAMBAYEQUECHICLAYO</t>
   </si>
   <si>
@@ -801,9 +714,6 @@
     <t>LAMBAYEQUEFERRENAFE</t>
   </si>
   <si>
-    <t>Ferreñafe</t>
-  </si>
-  <si>
     <t>LAMBAYEQUELAMBAYEQUE</t>
   </si>
   <si>
@@ -825,9 +735,6 @@
     <t>LIMACANETE</t>
   </si>
   <si>
-    <t>Cañete</t>
-  </si>
-  <si>
     <t>LIMACANTA</t>
   </si>
   <si>
@@ -843,9 +750,6 @@
     <t>LIMAHUAROCHIRI</t>
   </si>
   <si>
-    <t>Huarochirí</t>
-  </si>
-  <si>
     <t>LIMAHUAURA</t>
   </si>
   <si>
@@ -858,9 +762,6 @@
     <t>LIMAOYON</t>
   </si>
   <si>
-    <t>Oyón</t>
-  </si>
-  <si>
     <t>LIMAYAUYOS</t>
   </si>
   <si>
@@ -879,18 +780,12 @@
     <t>LORETODATEM DEL MARANON</t>
   </si>
   <si>
-    <t>Datem del Marañón</t>
-  </si>
-  <si>
     <t>LORETOLORETO</t>
   </si>
   <si>
     <t>LORETOMARISCAL RAMON CASTILLA</t>
   </si>
   <si>
-    <t>Mariscal Ramón Castilla</t>
-  </si>
-  <si>
     <t>LORETOMAYNAS</t>
   </si>
   <si>
@@ -936,9 +831,6 @@
     <t>Moquegua</t>
   </si>
   <si>
-    <t>General Sánchez Cerro</t>
-  </si>
-  <si>
     <t>MOQUEGUAILO</t>
   </si>
   <si>
@@ -957,9 +849,6 @@
     <t>Pasco</t>
   </si>
   <si>
-    <t>Daniel Alcides Carrión</t>
-  </si>
-  <si>
     <t>PASCOOXAPAMPA</t>
   </si>
   <si>
@@ -987,9 +876,6 @@
     <t>PIURAMORROPON</t>
   </si>
   <si>
-    <t>Morropón</t>
-  </si>
-  <si>
     <t>PIURAPAITA</t>
   </si>
   <si>
@@ -1029,9 +915,6 @@
     <t>Puno</t>
   </si>
   <si>
-    <t>Azángaro</t>
-  </si>
-  <si>
     <t>PUNOCARABAYA</t>
   </si>
   <si>
@@ -1053,9 +936,6 @@
     <t>PUNOHUANCANE</t>
   </si>
   <si>
-    <t>Huancané</t>
-  </si>
-  <si>
     <t>PUNOLAMPA</t>
   </si>
   <si>
@@ -1086,9 +966,6 @@
     <t>PUNOSAN ROMAN</t>
   </si>
   <si>
-    <t>San Román</t>
-  </si>
-  <si>
     <t>PUNOSANDIA</t>
   </si>
   <si>
@@ -1104,9 +981,6 @@
     <t>SAN MARTINBELLAVISTA</t>
   </si>
   <si>
-    <t>San Martín</t>
-  </si>
-  <si>
     <t>Bellavista</t>
   </si>
   <si>
@@ -1131,9 +1005,6 @@
     <t>SAN MARTINMARISCAL CACERES</t>
   </si>
   <si>
-    <t>Mariscal Cáceres</t>
-  </si>
-  <si>
     <t>SAN MARTINMOYOBAMBA</t>
   </si>
   <si>
@@ -1224,9 +1095,6 @@
     <t>UCAYALIPURUS</t>
   </si>
   <si>
-    <t>Purús</t>
-  </si>
-  <si>
     <t>pisomprecariototal</t>
   </si>
   <si>
@@ -1314,9 +1182,6 @@
     <t>Servicios basicos</t>
   </si>
   <si>
-    <t xml:space="preserve">Sertvicios Basicos </t>
-  </si>
-  <si>
     <t xml:space="preserve">Servicios Basicos </t>
   </si>
   <si>
@@ -1363,6 +1228,138 @@
   </si>
   <si>
     <t>Vivienda que tiene alumbrado por red pública. Es el porcentaje de las viviendas que contestaron afirmativamente a la pregunta sobre tenencia de alumbrado eléctrico por red pública</t>
+  </si>
+  <si>
+    <t>Ferrenafe</t>
+  </si>
+  <si>
+    <t>Canete</t>
+  </si>
+  <si>
+    <t>Bongara</t>
+  </si>
+  <si>
+    <t>ancash</t>
+  </si>
+  <si>
+    <t>Camana</t>
+  </si>
+  <si>
+    <t>Paucar del Sara Sara</t>
+  </si>
+  <si>
+    <t>Vilcas Huaman</t>
+  </si>
+  <si>
+    <t>Contumaza</t>
+  </si>
+  <si>
+    <t>Huaytara</t>
+  </si>
+  <si>
+    <t>Huanuco</t>
+  </si>
+  <si>
+    <t>Julcan</t>
+  </si>
+  <si>
+    <t>General Sanchez Cerro</t>
+  </si>
+  <si>
+    <t>Azangaro</t>
+  </si>
+  <si>
+    <t>San Roman</t>
+  </si>
+  <si>
+    <t>Mariscal Caceres</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>Chepen</t>
+  </si>
+  <si>
+    <t>Huancane</t>
+  </si>
+  <si>
+    <t>Rodriguez de Mendoza</t>
+  </si>
+  <si>
+    <t>Carlos Fermin Fitzcarrald</t>
+  </si>
+  <si>
+    <t>Apurimac</t>
+  </si>
+  <si>
+    <t>Caraveli</t>
+  </si>
+  <si>
+    <t>Victor Fajardo</t>
+  </si>
+  <si>
+    <t>Celendin</t>
+  </si>
+  <si>
+    <t>Chumbivilcas</t>
+  </si>
+  <si>
+    <t>Huamalies</t>
+  </si>
+  <si>
+    <t>Junin</t>
+  </si>
+  <si>
+    <t>Bolivar</t>
+  </si>
+  <si>
+    <t>Huarochiri</t>
+  </si>
+  <si>
+    <t>San Martin</t>
+  </si>
+  <si>
+    <t>Asuncion</t>
+  </si>
+  <si>
+    <t>La Union</t>
+  </si>
+  <si>
+    <t>La Convencion</t>
+  </si>
+  <si>
+    <t>Maranon</t>
+  </si>
+  <si>
+    <t>Concepcion</t>
+  </si>
+  <si>
+    <t>Sanchez Carrion</t>
+  </si>
+  <si>
+    <t>Oyon</t>
+  </si>
+  <si>
+    <t>Datem del Maranon</t>
+  </si>
+  <si>
+    <t>Mariscal Ramon Castilla</t>
+  </si>
+  <si>
+    <t>Daniel Alcides Carrion</t>
+  </si>
+  <si>
+    <t>Morropon</t>
+  </si>
+  <si>
+    <t>Gran Chimu</t>
+  </si>
+  <si>
+    <t>Viru</t>
+  </si>
+  <si>
+    <t>Purus</t>
   </si>
 </sst>
 </file>
@@ -1716,7 +1713,7 @@
   <dimension ref="A1:R208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1749,49 +1746,49 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>400</v>
+        <v>356</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>401</v>
+        <v>357</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>402</v>
+        <v>358</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>403</v>
+        <v>359</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>404</v>
+        <v>360</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>405</v>
+        <v>361</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>409</v>
+        <v>365</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>410</v>
+        <v>366</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>408</v>
+        <v>364</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>406</v>
+        <v>362</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>407</v>
+        <v>363</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>411</v>
+        <v>367</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>412</v>
+        <v>368</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>413</v>
+        <v>369</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>414</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -1858,7 +1855,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>403</v>
       </c>
       <c r="D3">
         <v>4139</v>
@@ -1908,13 +1905,13 @@
     </row>
     <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>7775</v>
@@ -1964,13 +1961,13 @@
     </row>
     <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>7031</v>
@@ -2020,13 +2017,13 @@
     </row>
     <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>10384</v>
@@ -2076,13 +2073,13 @@
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>419</v>
       </c>
       <c r="D7">
         <v>4510</v>
@@ -2132,13 +2129,13 @@
     </row>
     <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D8">
         <v>17687</v>
@@ -2188,13 +2185,13 @@
     </row>
     <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>404</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D9">
         <v>1969</v>
@@ -2244,13 +2241,13 @@
     </row>
     <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="D10">
         <v>3782</v>
@@ -2300,13 +2297,13 @@
     </row>
     <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>404</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>431</v>
       </c>
       <c r="D11">
         <v>1971</v>
@@ -2356,13 +2353,13 @@
     </row>
     <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>404</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D12">
         <v>5975</v>
@@ -2412,13 +2409,13 @@
     </row>
     <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>19</v>
+        <v>404</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D13">
         <v>9185</v>
@@ -2468,13 +2465,13 @@
     </row>
     <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>404</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>420</v>
       </c>
       <c r="D14">
         <v>4929</v>
@@ -2524,13 +2521,13 @@
     </row>
     <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>404</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D15">
         <v>6335</v>
@@ -2580,13 +2577,13 @@
     </row>
     <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>19</v>
+        <v>404</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D16">
         <v>1640</v>
@@ -2636,13 +2633,13 @@
     </row>
     <row r="17" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>404</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D17">
         <v>18438</v>
@@ -2692,13 +2689,13 @@
     </row>
     <row r="18" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>19</v>
+        <v>404</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D18">
         <v>12719</v>
@@ -2748,13 +2745,13 @@
     </row>
     <row r="19" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>19</v>
+        <v>404</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D19">
         <v>3376</v>
@@ -2804,13 +2801,13 @@
     </row>
     <row r="20" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>19</v>
+        <v>404</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D20">
         <v>9984</v>
@@ -2860,13 +2857,13 @@
     </row>
     <row r="21" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>19</v>
+        <v>404</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D21">
         <v>5155</v>
@@ -2916,13 +2913,13 @@
     </row>
     <row r="22" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>404</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D22">
         <v>2130</v>
@@ -2972,13 +2969,13 @@
     </row>
     <row r="23" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>19</v>
+        <v>404</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D23">
         <v>6450</v>
@@ -3028,13 +3025,13 @@
     </row>
     <row r="24" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>19</v>
+        <v>404</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D24">
         <v>5730</v>
@@ -3084,13 +3081,13 @@
     </row>
     <row r="25" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>19</v>
+        <v>404</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D25">
         <v>3949</v>
@@ -3140,13 +3137,13 @@
     </row>
     <row r="26" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>19</v>
+        <v>404</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D26">
         <v>29798</v>
@@ -3196,13 +3193,13 @@
     </row>
     <row r="27" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>19</v>
+        <v>404</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D27">
         <v>6311</v>
@@ -3252,13 +3249,13 @@
     </row>
     <row r="28" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>19</v>
+        <v>404</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D28">
         <v>10924</v>
@@ -3308,13 +3305,13 @@
     </row>
     <row r="29" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>60</v>
+        <v>421</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D29">
         <v>16078</v>
@@ -3364,13 +3361,13 @@
     </row>
     <row r="30" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>60</v>
+        <v>421</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D30">
         <v>30154</v>
@@ -3420,13 +3417,13 @@
     </row>
     <row r="31" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>60</v>
+        <v>421</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D31">
         <v>3612</v>
@@ -3476,13 +3473,13 @@
     </row>
     <row r="32" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>60</v>
+        <v>421</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D32">
         <v>7947</v>
@@ -3532,13 +3529,13 @@
     </row>
     <row r="33" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>60</v>
+        <v>421</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D33">
         <v>12229</v>
@@ -3588,13 +3585,13 @@
     </row>
     <row r="34" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>60</v>
+        <v>421</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D34">
         <v>10651</v>
@@ -3644,13 +3641,13 @@
     </row>
     <row r="35" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>60</v>
+        <v>421</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D35">
         <v>6511</v>
@@ -3700,13 +3697,13 @@
     </row>
     <row r="36" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D36">
         <v>41509</v>
@@ -3756,13 +3753,13 @@
     </row>
     <row r="37" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>77</v>
+        <v>405</v>
       </c>
       <c r="D37">
         <v>7063</v>
@@ -3812,13 +3809,13 @@
     </row>
     <row r="38" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>79</v>
+        <v>422</v>
       </c>
       <c r="D38">
         <v>4088</v>
@@ -3868,13 +3865,13 @@
     </row>
     <row r="39" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D39">
         <v>5736</v>
@@ -3924,13 +3921,13 @@
     </row>
     <row r="40" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D40">
         <v>13953</v>
@@ -3980,13 +3977,13 @@
     </row>
     <row r="41" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D41">
         <v>4032</v>
@@ -4036,13 +4033,13 @@
     </row>
     <row r="42" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D42">
         <v>5102</v>
@@ -4092,13 +4089,13 @@
     </row>
     <row r="43" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>89</v>
+        <v>432</v>
       </c>
       <c r="D43">
         <v>4232</v>
@@ -4148,13 +4145,13 @@
     </row>
     <row r="44" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D44">
         <v>8997</v>
@@ -4204,13 +4201,13 @@
     </row>
     <row r="45" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D45">
         <v>31431</v>
@@ -4260,13 +4257,13 @@
     </row>
     <row r="46" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D46">
         <v>3261</v>
@@ -4316,13 +4313,13 @@
     </row>
     <row r="47" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D47">
         <v>17968</v>
@@ -4372,13 +4369,13 @@
     </row>
     <row r="48" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="D48">
         <v>18260</v>
@@ -4428,13 +4425,13 @@
     </row>
     <row r="49" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D49">
         <v>17000</v>
@@ -4484,13 +4481,13 @@
     </row>
     <row r="50" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D50">
         <v>6903</v>
@@ -4540,13 +4537,13 @@
     </row>
     <row r="51" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>106</v>
+        <v>406</v>
       </c>
       <c r="D51">
         <v>2671</v>
@@ -4596,13 +4593,13 @@
     </row>
     <row r="52" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D52">
         <v>3643</v>
@@ -4652,13 +4649,13 @@
     </row>
     <row r="53" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>110</v>
+        <v>423</v>
       </c>
       <c r="D53">
         <v>7626</v>
@@ -4708,13 +4705,13 @@
     </row>
     <row r="54" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>112</v>
+        <v>407</v>
       </c>
       <c r="D54">
         <v>6672</v>
@@ -4764,13 +4761,13 @@
     </row>
     <row r="55" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D55">
         <v>15496</v>
@@ -4820,13 +4817,13 @@
     </row>
     <row r="56" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D56">
         <v>41953</v>
@@ -4876,13 +4873,13 @@
     </row>
     <row r="57" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>118</v>
+        <v>424</v>
       </c>
       <c r="D57">
         <v>18867</v>
@@ -4932,13 +4929,13 @@
     </row>
     <row r="58" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="D58">
         <v>32156</v>
@@ -4988,13 +4985,13 @@
     </row>
     <row r="59" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>122</v>
+        <v>408</v>
       </c>
       <c r="D59">
         <v>6039</v>
@@ -5044,13 +5041,13 @@
     </row>
     <row r="60" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="D60">
         <v>25632</v>
@@ -5100,13 +5097,13 @@
     </row>
     <row r="61" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D61">
         <v>19918</v>
@@ -5156,13 +5153,13 @@
     </row>
     <row r="62" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>128</v>
+        <v>416</v>
       </c>
       <c r="D62">
         <v>22871</v>
@@ -5212,13 +5209,13 @@
     </row>
     <row r="63" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D63">
         <v>22521</v>
@@ -5268,13 +5265,13 @@
     </row>
     <row r="64" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="D64">
         <v>11463</v>
@@ -5324,13 +5321,13 @@
     </row>
     <row r="65" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="D65">
         <v>13280</v>
@@ -5380,13 +5377,13 @@
     </row>
     <row r="66" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="D66">
         <v>5143</v>
@@ -5436,13 +5433,13 @@
     </row>
     <row r="67" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="D67">
         <v>9394</v>
@@ -5492,13 +5489,13 @@
     </row>
     <row r="68" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="D68">
         <v>7032</v>
@@ -5548,13 +5545,13 @@
     </row>
     <row r="69" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="D69">
         <v>12397</v>
@@ -5604,13 +5601,13 @@
     </row>
     <row r="70" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="D70">
         <v>13708</v>
@@ -5660,13 +5657,13 @@
     </row>
     <row r="71" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="D71">
         <v>9661</v>
@@ -5716,13 +5713,13 @@
     </row>
     <row r="72" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="D72">
         <v>21198</v>
@@ -5772,13 +5769,13 @@
     </row>
     <row r="73" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>151</v>
+        <v>425</v>
       </c>
       <c r="D73">
         <v>18244</v>
@@ -5828,13 +5825,13 @@
     </row>
     <row r="74" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="D74">
         <v>41546</v>
@@ -5884,13 +5881,13 @@
     </row>
     <row r="75" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="D75">
         <v>13584</v>
@@ -5940,13 +5937,13 @@
     </row>
     <row r="76" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>156</v>
+        <v>433</v>
       </c>
       <c r="D76">
         <v>30842</v>
@@ -5996,13 +5993,13 @@
     </row>
     <row r="77" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="D77">
         <v>8007</v>
@@ -6052,13 +6049,13 @@
     </row>
     <row r="78" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="D78">
         <v>10356</v>
@@ -6108,13 +6105,13 @@
     </row>
     <row r="79" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="D79">
         <v>17170</v>
@@ -6164,13 +6161,13 @@
     </row>
     <row r="80" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="D80">
         <v>9524</v>
@@ -6220,13 +6217,13 @@
     </row>
     <row r="81" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="D81">
         <v>14151</v>
@@ -6276,13 +6273,13 @@
     </row>
     <row r="82" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="D82">
         <v>12251</v>
@@ -6332,13 +6329,13 @@
     </row>
     <row r="83" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="D83">
         <v>5285</v>
@@ -6388,13 +6385,13 @@
     </row>
     <row r="84" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="D84">
         <v>10295</v>
@@ -6444,13 +6441,13 @@
     </row>
     <row r="85" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="D85">
         <v>27767</v>
@@ -6500,13 +6497,13 @@
     </row>
     <row r="86" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>176</v>
+        <v>409</v>
       </c>
       <c r="D86">
         <v>6270</v>
@@ -6556,13 +6553,13 @@
     </row>
     <row r="87" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="D87">
         <v>23772</v>
@@ -6612,13 +6609,13 @@
     </row>
     <row r="88" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>180</v>
+        <v>410</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="D88">
         <v>10992</v>
@@ -6668,13 +6665,13 @@
     </row>
     <row r="89" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>180</v>
+        <v>410</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="D89">
         <v>9395</v>
@@ -6724,13 +6721,13 @@
     </row>
     <row r="90" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>180</v>
+        <v>410</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="D90">
         <v>4309</v>
@@ -6780,13 +6777,13 @@
     </row>
     <row r="91" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>180</v>
+        <v>410</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>187</v>
+        <v>426</v>
       </c>
       <c r="D91">
         <v>13737</v>
@@ -6836,13 +6833,13 @@
     </row>
     <row r="92" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>180</v>
+        <v>410</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>180</v>
+        <v>410</v>
       </c>
       <c r="D92">
         <v>34960</v>
@@ -6892,13 +6889,13 @@
     </row>
     <row r="93" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>180</v>
+        <v>410</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="D93">
         <v>7624</v>
@@ -6948,13 +6945,13 @@
     </row>
     <row r="94" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>180</v>
+        <v>410</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="D94">
         <v>12605</v>
@@ -7004,13 +7001,13 @@
     </row>
     <row r="95" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>180</v>
+        <v>410</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>194</v>
+        <v>434</v>
       </c>
       <c r="D95">
         <v>5666</v>
@@ -7060,13 +7057,13 @@
     </row>
     <row r="96" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>180</v>
+        <v>410</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="D96">
         <v>11574</v>
@@ -7116,13 +7113,13 @@
     </row>
     <row r="97" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>180</v>
+        <v>410</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="D97">
         <v>2069</v>
@@ -7172,13 +7169,13 @@
     </row>
     <row r="98" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>180</v>
+        <v>410</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="D98">
         <v>8034</v>
@@ -7228,13 +7225,13 @@
     </row>
     <row r="99" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="D99">
         <v>22249</v>
@@ -7284,13 +7281,13 @@
     </row>
     <row r="100" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="D100">
         <v>28365</v>
@@ -7340,13 +7337,13 @@
     </row>
     <row r="101" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="D101">
         <v>4037</v>
@@ -7396,13 +7393,13 @@
     </row>
     <row r="102" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="D102">
         <v>1593</v>
@@ -7452,13 +7449,13 @@
     </row>
     <row r="103" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="D103">
         <v>14047</v>
@@ -7508,13 +7505,13 @@
     </row>
     <row r="104" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>212</v>
+        <v>427</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="D104">
         <v>22279</v>
@@ -7564,13 +7561,13 @@
     </row>
     <row r="105" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>212</v>
+        <v>427</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="D105">
         <v>8805</v>
@@ -7620,13 +7617,13 @@
     </row>
     <row r="106" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>212</v>
+        <v>427</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>217</v>
+        <v>435</v>
       </c>
       <c r="D106">
         <v>11037</v>
@@ -7676,13 +7673,13 @@
     </row>
     <row r="107" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>212</v>
+        <v>427</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="D107">
         <v>46098</v>
@@ -7732,13 +7729,13 @@
     </row>
     <row r="108" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>212</v>
+        <v>427</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="D108">
         <v>16632</v>
@@ -7788,13 +7785,13 @@
     </row>
     <row r="109" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>212</v>
+        <v>427</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>212</v>
+        <v>427</v>
       </c>
       <c r="D109">
         <v>7221</v>
@@ -7844,13 +7841,13 @@
     </row>
     <row r="110" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>212</v>
+        <v>427</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="D110">
         <v>31176</v>
@@ -7900,13 +7897,13 @@
     </row>
     <row r="111" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>212</v>
+        <v>427</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="D111">
         <v>18258</v>
@@ -7956,13 +7953,13 @@
     </row>
     <row r="112" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>212</v>
+        <v>427</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="D112">
         <v>5970</v>
@@ -8012,13 +8009,13 @@
     </row>
     <row r="113" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="D113">
         <v>11079</v>
@@ -8068,13 +8065,13 @@
     </row>
     <row r="114" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>233</v>
+        <v>428</v>
       </c>
       <c r="D114">
         <v>3513</v>
@@ -8124,13 +8121,13 @@
     </row>
     <row r="115" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>235</v>
+        <v>417</v>
       </c>
       <c r="D115">
         <v>7651</v>
@@ -8180,13 +8177,13 @@
     </row>
     <row r="116" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>237</v>
+        <v>442</v>
       </c>
       <c r="D116">
         <v>6172</v>
@@ -8236,13 +8233,13 @@
     </row>
     <row r="117" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>239</v>
+        <v>411</v>
       </c>
       <c r="D117">
         <v>7882</v>
@@ -8292,13 +8289,13 @@
     </row>
     <row r="118" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="D118">
         <v>19294</v>
@@ -8348,13 +8345,13 @@
     </row>
     <row r="119" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="D119">
         <v>8049</v>
@@ -8404,13 +8401,13 @@
     </row>
     <row r="120" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="D120">
         <v>14430</v>
@@ -8460,13 +8457,13 @@
     </row>
     <row r="121" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>247</v>
+        <v>436</v>
       </c>
       <c r="D121">
         <v>26602</v>
@@ -8516,13 +8513,13 @@
     </row>
     <row r="122" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="D122">
         <v>11757</v>
@@ -8572,13 +8569,13 @@
     </row>
     <row r="123" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="D123">
         <v>57313</v>
@@ -8628,13 +8625,13 @@
     </row>
     <row r="124" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>253</v>
+        <v>443</v>
       </c>
       <c r="D124">
         <v>11739</v>
@@ -8684,13 +8681,13 @@
     </row>
     <row r="125" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="D125">
         <v>55042</v>
@@ -8740,13 +8737,13 @@
     </row>
     <row r="126" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>258</v>
+        <v>401</v>
       </c>
       <c r="D126">
         <v>14820</v>
@@ -8796,13 +8793,13 @@
     </row>
     <row r="127" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="D127">
         <v>34351</v>
@@ -8852,13 +8849,13 @@
     </row>
     <row r="128" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="D128">
         <v>11448</v>
@@ -8908,13 +8905,13 @@
     </row>
     <row r="129" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="D129">
         <v>2120</v>
@@ -8964,13 +8961,13 @@
     </row>
     <row r="130" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>266</v>
+        <v>402</v>
       </c>
       <c r="D130">
         <v>21869</v>
@@ -9020,13 +9017,13 @@
     </row>
     <row r="131" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="D131">
         <v>2694</v>
@@ -9076,13 +9073,13 @@
     </row>
     <row r="132" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="D132">
         <v>13369</v>
@@ -9132,13 +9129,13 @@
     </row>
     <row r="133" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>272</v>
+        <v>429</v>
       </c>
       <c r="D133">
         <v>10034</v>
@@ -9188,13 +9185,13 @@
     </row>
     <row r="134" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="D134">
         <v>16278</v>
@@ -9244,13 +9241,13 @@
     </row>
     <row r="135" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="D135">
         <v>260647</v>
@@ -9300,13 +9297,13 @@
     </row>
     <row r="136" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>277</v>
+        <v>437</v>
       </c>
       <c r="D136">
         <v>3565</v>
@@ -9356,13 +9353,13 @@
     </row>
     <row r="137" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>279</v>
+        <v>246</v>
       </c>
       <c r="D137">
         <v>6682</v>
@@ -9412,13 +9409,13 @@
     </row>
     <row r="138" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="D138">
         <v>12506</v>
@@ -9468,13 +9465,13 @@
     </row>
     <row r="139" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>284</v>
+        <v>438</v>
       </c>
       <c r="D139">
         <v>4561</v>
@@ -9524,13 +9521,13 @@
     </row>
     <row r="140" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>285</v>
+        <v>251</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="D140">
         <v>3933</v>
@@ -9580,13 +9577,13 @@
     </row>
     <row r="141" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>287</v>
+        <v>439</v>
       </c>
       <c r="D141">
         <v>2128</v>
@@ -9636,13 +9633,13 @@
     </row>
     <row r="142" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="D142">
         <v>36844</v>
@@ -9692,13 +9689,13 @@
     </row>
     <row r="143" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="D143">
         <v>5851</v>
@@ -9748,13 +9745,13 @@
     </row>
     <row r="144" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="D144">
         <v>5602</v>
@@ -9804,13 +9801,13 @@
     </row>
     <row r="145" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>294</v>
+        <v>259</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>295</v>
+        <v>260</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>296</v>
+        <v>261</v>
       </c>
       <c r="D145">
         <v>2094</v>
@@ -9860,13 +9857,13 @@
     </row>
     <row r="146" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>295</v>
+        <v>260</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c r="D146">
         <v>1123</v>
@@ -9916,13 +9913,13 @@
     </row>
     <row r="147" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>299</v>
+        <v>264</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>295</v>
+        <v>260</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="D147">
         <v>5702</v>
@@ -9972,13 +9969,13 @@
     </row>
     <row r="148" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>303</v>
+        <v>412</v>
       </c>
       <c r="D148">
         <v>5889</v>
@@ -10028,13 +10025,13 @@
     </row>
     <row r="149" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="D149">
         <v>3673</v>
@@ -10084,13 +10081,13 @@
     </row>
     <row r="150" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>306</v>
+        <v>270</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="D150">
         <v>11576</v>
@@ -10140,13 +10137,13 @@
     </row>
     <row r="151" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>309</v>
+        <v>273</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>310</v>
+        <v>440</v>
       </c>
       <c r="D151">
         <v>10041</v>
@@ -10196,13 +10193,13 @@
     </row>
     <row r="152" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>311</v>
+        <v>274</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>309</v>
+        <v>273</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>312</v>
+        <v>275</v>
       </c>
       <c r="D152">
         <v>6264</v>
@@ -10252,13 +10249,13 @@
     </row>
     <row r="153" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>313</v>
+        <v>276</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>309</v>
+        <v>273</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>309</v>
+        <v>273</v>
       </c>
       <c r="D153">
         <v>22628</v>
@@ -10308,13 +10305,13 @@
     </row>
     <row r="154" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>314</v>
+        <v>277</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>315</v>
+        <v>278</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>316</v>
+        <v>279</v>
       </c>
       <c r="D154">
         <v>27055</v>
@@ -10364,13 +10361,13 @@
     </row>
     <row r="155" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>315</v>
+        <v>278</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>318</v>
+        <v>281</v>
       </c>
       <c r="D155">
         <v>25895</v>
@@ -10420,13 +10417,13 @@
     </row>
     <row r="156" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>319</v>
+        <v>282</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>315</v>
+        <v>278</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>320</v>
+        <v>441</v>
       </c>
       <c r="D156">
         <v>28662</v>
@@ -10476,13 +10473,13 @@
     </row>
     <row r="157" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>321</v>
+        <v>283</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>315</v>
+        <v>278</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>322</v>
+        <v>284</v>
       </c>
       <c r="D157">
         <v>12350</v>
@@ -10532,13 +10529,13 @@
     </row>
     <row r="158" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>323</v>
+        <v>285</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>315</v>
+        <v>278</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>315</v>
+        <v>278</v>
       </c>
       <c r="D158">
         <v>82024</v>
@@ -10588,13 +10585,13 @@
     </row>
     <row r="159" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>324</v>
+        <v>286</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>315</v>
+        <v>278</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>325</v>
+        <v>287</v>
       </c>
       <c r="D159">
         <v>6364</v>
@@ -10644,13 +10641,13 @@
     </row>
     <row r="160" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>326</v>
+        <v>288</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>315</v>
+        <v>278</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>327</v>
+        <v>289</v>
       </c>
       <c r="D160">
         <v>33114</v>
@@ -10700,13 +10697,13 @@
     </row>
     <row r="161" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>328</v>
+        <v>290</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>315</v>
+        <v>278</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
       <c r="D161">
         <v>6903</v>
@@ -10756,13 +10753,13 @@
     </row>
     <row r="162" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>330</v>
+        <v>292</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>331</v>
+        <v>293</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>331</v>
+        <v>293</v>
       </c>
       <c r="D162">
         <v>38314</v>
@@ -10812,13 +10809,13 @@
     </row>
     <row r="163" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>332</v>
+        <v>294</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>334</v>
+        <v>413</v>
       </c>
       <c r="D163">
         <v>34662</v>
@@ -10868,13 +10865,13 @@
     </row>
     <row r="164" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>335</v>
+        <v>296</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>336</v>
+        <v>297</v>
       </c>
       <c r="D164">
         <v>17175</v>
@@ -10924,13 +10921,13 @@
     </row>
     <row r="165" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>338</v>
+        <v>299</v>
       </c>
       <c r="D165">
         <v>27881</v>
@@ -10980,13 +10977,13 @@
     </row>
     <row r="166" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>339</v>
+        <v>300</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>340</v>
+        <v>301</v>
       </c>
       <c r="D166">
         <v>21795</v>
@@ -11036,13 +11033,13 @@
     </row>
     <row r="167" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>341</v>
+        <v>302</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>342</v>
+        <v>418</v>
       </c>
       <c r="D167">
         <v>20344</v>
@@ -11092,13 +11089,13 @@
     </row>
     <row r="168" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>344</v>
+        <v>304</v>
       </c>
       <c r="D168">
         <v>11393</v>
@@ -11148,13 +11145,13 @@
     </row>
     <row r="169" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>345</v>
+        <v>305</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>346</v>
+        <v>306</v>
       </c>
       <c r="D169">
         <v>17231</v>
@@ -11204,13 +11201,13 @@
     </row>
     <row r="170" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>347</v>
+        <v>307</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>348</v>
+        <v>308</v>
       </c>
       <c r="D170">
         <v>8882</v>
@@ -11260,13 +11257,13 @@
     </row>
     <row r="171" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>349</v>
+        <v>309</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
       <c r="D171">
         <v>39959</v>
@@ -11316,13 +11313,13 @@
     </row>
     <row r="172" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>351</v>
+        <v>311</v>
       </c>
       <c r="D172">
         <v>13905</v>
@@ -11372,13 +11369,13 @@
     </row>
     <row r="173" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>352</v>
+        <v>312</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>353</v>
+        <v>414</v>
       </c>
       <c r="D173">
         <v>30817</v>
@@ -11428,13 +11425,13 @@
     </row>
     <row r="174" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>354</v>
+        <v>313</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>355</v>
+        <v>314</v>
       </c>
       <c r="D174">
         <v>16074</v>
@@ -11484,13 +11481,13 @@
     </row>
     <row r="175" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>356</v>
+        <v>315</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>357</v>
+        <v>316</v>
       </c>
       <c r="D175">
         <v>8868</v>
@@ -11540,13 +11537,13 @@
     </row>
     <row r="176" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>358</v>
+        <v>317</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>359</v>
+        <v>430</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>360</v>
+        <v>318</v>
       </c>
       <c r="D176">
         <v>8600</v>
@@ -11596,13 +11593,13 @@
     </row>
     <row r="177" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>361</v>
+        <v>319</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>359</v>
+        <v>430</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>362</v>
+        <v>320</v>
       </c>
       <c r="D177">
         <v>6276</v>
@@ -11652,13 +11649,13 @@
     </row>
     <row r="178" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>363</v>
+        <v>321</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>359</v>
+        <v>430</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>364</v>
+        <v>322</v>
       </c>
       <c r="D178">
         <v>3976</v>
@@ -11708,13 +11705,13 @@
     </row>
     <row r="179" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>365</v>
+        <v>323</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>359</v>
+        <v>430</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>366</v>
+        <v>324</v>
       </c>
       <c r="D179">
         <v>13097</v>
@@ -11764,13 +11761,13 @@
     </row>
     <row r="180" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>367</v>
+        <v>325</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>359</v>
+        <v>430</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>368</v>
+        <v>415</v>
       </c>
       <c r="D180">
         <v>7352</v>
@@ -11820,13 +11817,13 @@
     </row>
     <row r="181" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
-        <v>369</v>
+        <v>326</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>359</v>
+        <v>430</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>370</v>
+        <v>327</v>
       </c>
       <c r="D181">
         <v>16112</v>
@@ -11876,13 +11873,13 @@
     </row>
     <row r="182" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>371</v>
+        <v>328</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>359</v>
+        <v>430</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>372</v>
+        <v>329</v>
       </c>
       <c r="D182">
         <v>6198</v>
@@ -11932,13 +11929,13 @@
     </row>
     <row r="183" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>373</v>
+        <v>330</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>359</v>
+        <v>430</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>374</v>
+        <v>331</v>
       </c>
       <c r="D183">
         <v>13715</v>
@@ -11988,13 +11985,13 @@
     </row>
     <row r="184" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>375</v>
+        <v>332</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>359</v>
+        <v>430</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>359</v>
+        <v>430</v>
       </c>
       <c r="D184">
         <v>13616</v>
@@ -12044,13 +12041,13 @@
     </row>
     <row r="185" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>376</v>
+        <v>333</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>359</v>
+        <v>430</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>377</v>
+        <v>334</v>
       </c>
       <c r="D185">
         <v>9250</v>
@@ -12100,13 +12097,13 @@
     </row>
     <row r="186" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>378</v>
+        <v>335</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>379</v>
+        <v>336</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>380</v>
+        <v>337</v>
       </c>
       <c r="D186">
         <v>2358</v>
@@ -12156,13 +12153,13 @@
     </row>
     <row r="187" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
-        <v>381</v>
+        <v>338</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>379</v>
+        <v>336</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>382</v>
+        <v>339</v>
       </c>
       <c r="D187">
         <v>1425</v>
@@ -12212,13 +12209,13 @@
     </row>
     <row r="188" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>383</v>
+        <v>340</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>379</v>
+        <v>336</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>379</v>
+        <v>336</v>
       </c>
       <c r="D188">
         <v>26298</v>
@@ -12268,13 +12265,13 @@
     </row>
     <row r="189" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
-        <v>384</v>
+        <v>341</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>379</v>
+        <v>336</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>385</v>
+        <v>342</v>
       </c>
       <c r="D189">
         <v>2296</v>
@@ -12324,13 +12321,13 @@
     </row>
     <row r="190" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>386</v>
+        <v>343</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>387</v>
+        <v>344</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>388</v>
+        <v>345</v>
       </c>
       <c r="D190">
         <v>1847</v>
@@ -12380,13 +12377,13 @@
     </row>
     <row r="191" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
-        <v>389</v>
+        <v>346</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>387</v>
+        <v>344</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>387</v>
+        <v>344</v>
       </c>
       <c r="D191">
         <v>13840</v>
@@ -12436,13 +12433,13 @@
     </row>
     <row r="192" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>390</v>
+        <v>347</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>387</v>
+        <v>344</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>391</v>
+        <v>348</v>
       </c>
       <c r="D192">
         <v>5361</v>
@@ -12492,13 +12489,13 @@
     </row>
     <row r="193" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
-        <v>392</v>
+        <v>349</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>393</v>
+        <v>350</v>
       </c>
       <c r="D193">
         <v>3345</v>
@@ -12548,13 +12545,13 @@
     </row>
     <row r="194" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>394</v>
+        <v>351</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>395</v>
+        <v>352</v>
       </c>
       <c r="D194">
         <v>35388</v>
@@ -12604,13 +12601,13 @@
     </row>
     <row r="195" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
-        <v>396</v>
+        <v>353</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>397</v>
+        <v>354</v>
       </c>
       <c r="D195">
         <v>6670</v>
@@ -12660,13 +12657,13 @@
     </row>
     <row r="196" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>398</v>
+        <v>355</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>399</v>
+        <v>444</v>
       </c>
       <c r="D196">
         <v>213</v>
@@ -12744,277 +12741,277 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
-        <v>423</v>
+        <v>379</v>
       </c>
       <c r="E1" t="s">
-        <v>424</v>
+        <v>380</v>
       </c>
       <c r="F1" t="s">
-        <v>438</v>
+        <v>393</v>
       </c>
       <c r="G1" t="s">
-        <v>432</v>
+        <v>387</v>
       </c>
       <c r="H1" t="s">
-        <v>434</v>
+        <v>389</v>
       </c>
       <c r="I1" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>400</v>
+        <v>356</v>
       </c>
       <c r="B2" t="s">
-        <v>415</v>
+        <v>371</v>
       </c>
       <c r="C2" t="s">
-        <v>420</v>
+        <v>376</v>
       </c>
       <c r="D2" t="s">
-        <v>425</v>
+        <v>381</v>
       </c>
       <c r="E2" t="s">
-        <v>426</v>
+        <v>382</v>
       </c>
       <c r="F2" t="s">
-        <v>439</v>
+        <v>394</v>
       </c>
       <c r="G2" t="s">
-        <v>440</v>
+        <v>395</v>
       </c>
       <c r="H2" t="s">
-        <v>435</v>
+        <v>390</v>
       </c>
       <c r="I2" t="s">
-        <v>437</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>401</v>
+        <v>357</v>
       </c>
       <c r="B3" t="s">
-        <v>415</v>
+        <v>371</v>
       </c>
       <c r="C3" t="s">
-        <v>421</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>402</v>
+        <v>358</v>
       </c>
       <c r="B4" t="s">
-        <v>415</v>
+        <v>371</v>
       </c>
       <c r="C4" t="s">
-        <v>422</v>
+        <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>403</v>
+        <v>359</v>
       </c>
       <c r="B5" t="s">
-        <v>416</v>
+        <v>372</v>
       </c>
       <c r="C5" t="s">
-        <v>420</v>
+        <v>376</v>
       </c>
       <c r="D5" t="s">
-        <v>425</v>
+        <v>381</v>
       </c>
       <c r="E5" t="s">
-        <v>427</v>
+        <v>383</v>
       </c>
       <c r="F5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="G5" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
       <c r="H5" t="s">
-        <v>435</v>
+        <v>390</v>
       </c>
       <c r="I5" t="s">
-        <v>437</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>404</v>
+        <v>360</v>
       </c>
       <c r="B6" t="s">
-        <v>416</v>
+        <v>372</v>
       </c>
       <c r="C6" t="s">
-        <v>421</v>
+        <v>377</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>405</v>
+        <v>361</v>
       </c>
       <c r="B7" t="s">
-        <v>416</v>
+        <v>372</v>
       </c>
       <c r="C7" t="s">
-        <v>422</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>409</v>
+        <v>365</v>
       </c>
       <c r="B8" t="s">
-        <v>417</v>
+        <v>373</v>
       </c>
       <c r="C8" t="s">
-        <v>420</v>
+        <v>376</v>
       </c>
       <c r="D8" t="s">
-        <v>431</v>
+        <v>386</v>
       </c>
       <c r="E8" t="s">
-        <v>428</v>
+        <v>384</v>
       </c>
       <c r="F8" t="s">
-        <v>443</v>
+        <v>398</v>
       </c>
       <c r="G8" t="s">
-        <v>440</v>
+        <v>395</v>
       </c>
       <c r="H8" t="s">
-        <v>435</v>
+        <v>390</v>
       </c>
       <c r="I8" t="s">
-        <v>437</v>
+        <v>392</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>410</v>
+        <v>366</v>
       </c>
       <c r="B9" t="s">
-        <v>417</v>
+        <v>373</v>
       </c>
       <c r="C9" t="s">
-        <v>421</v>
+        <v>377</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>408</v>
+        <v>364</v>
       </c>
       <c r="B10" t="s">
-        <v>417</v>
+        <v>373</v>
       </c>
       <c r="C10" t="s">
-        <v>422</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>406</v>
+        <v>362</v>
       </c>
       <c r="B11" t="s">
-        <v>418</v>
+        <v>374</v>
       </c>
       <c r="C11" t="s">
-        <v>420</v>
+        <v>376</v>
       </c>
       <c r="D11" t="s">
-        <v>431</v>
+        <v>386</v>
       </c>
       <c r="E11" t="s">
-        <v>430</v>
+        <v>385</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>444</v>
+        <v>399</v>
       </c>
       <c r="G11" t="s">
-        <v>440</v>
+        <v>395</v>
       </c>
       <c r="H11" t="s">
-        <v>435</v>
+        <v>390</v>
       </c>
       <c r="I11" t="s">
-        <v>437</v>
+        <v>392</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>407</v>
+        <v>363</v>
       </c>
       <c r="B12" t="s">
-        <v>418</v>
+        <v>374</v>
       </c>
       <c r="C12" t="s">
-        <v>421</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>411</v>
+        <v>367</v>
       </c>
       <c r="B13" t="s">
-        <v>418</v>
+        <v>374</v>
       </c>
       <c r="C13" t="s">
-        <v>422</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>412</v>
+        <v>368</v>
       </c>
       <c r="B14" t="s">
-        <v>419</v>
+        <v>375</v>
       </c>
       <c r="C14" t="s">
-        <v>420</v>
+        <v>376</v>
       </c>
       <c r="D14" t="s">
-        <v>431</v>
+        <v>386</v>
       </c>
       <c r="E14" t="s">
-        <v>430</v>
+        <v>385</v>
       </c>
       <c r="F14" t="s">
-        <v>445</v>
+        <v>400</v>
       </c>
       <c r="G14" t="s">
-        <v>433</v>
+        <v>388</v>
       </c>
       <c r="H14" t="s">
-        <v>435</v>
+        <v>390</v>
       </c>
       <c r="I14" t="s">
-        <v>437</v>
+        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>413</v>
+        <v>369</v>
       </c>
       <c r="B15" t="s">
-        <v>419</v>
+        <v>375</v>
       </c>
       <c r="C15" t="s">
-        <v>421</v>
+        <v>377</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>414</v>
+        <v>370</v>
       </c>
       <c r="B16" t="s">
-        <v>419</v>
+        <v>375</v>
       </c>
       <c r="C16" t="s">
-        <v>422</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>

--- a/DATA INEI.xlsx
+++ b/DATA INEI.xlsx
@@ -1239,9 +1239,6 @@
     <t>Bongara</t>
   </si>
   <si>
-    <t>ancash</t>
-  </si>
-  <si>
     <t>Camana</t>
   </si>
   <si>
@@ -1360,6 +1357,9 @@
   </si>
   <si>
     <t>Purus</t>
+  </si>
+  <si>
+    <t>Ancash</t>
   </si>
 </sst>
 </file>
@@ -1713,7 +1713,7 @@
   <dimension ref="A1:R208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2079,7 +2079,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D7">
         <v>4510</v>
@@ -2188,7 +2188,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>404</v>
+        <v>444</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>17</v>
@@ -2244,7 +2244,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>404</v>
+        <v>444</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>19</v>
@@ -2300,10 +2300,10 @@
         <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>404</v>
+        <v>444</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D11">
         <v>1971</v>
@@ -2356,7 +2356,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>404</v>
+        <v>444</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>22</v>
@@ -2412,7 +2412,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>404</v>
+        <v>444</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>24</v>
@@ -2468,10 +2468,10 @@
         <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>404</v>
+        <v>444</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D14">
         <v>4929</v>
@@ -2524,7 +2524,7 @@
         <v>26</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>404</v>
+        <v>444</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>27</v>
@@ -2580,7 +2580,7 @@
         <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>404</v>
+        <v>444</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>29</v>
@@ -2636,7 +2636,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>404</v>
+        <v>444</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>31</v>
@@ -2692,7 +2692,7 @@
         <v>32</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>404</v>
+        <v>444</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>33</v>
@@ -2748,7 +2748,7 @@
         <v>34</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>404</v>
+        <v>444</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>35</v>
@@ -2804,7 +2804,7 @@
         <v>36</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>404</v>
+        <v>444</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>37</v>
@@ -2860,7 +2860,7 @@
         <v>38</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>404</v>
+        <v>444</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>39</v>
@@ -2916,7 +2916,7 @@
         <v>40</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>404</v>
+        <v>444</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>41</v>
@@ -2972,7 +2972,7 @@
         <v>42</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>404</v>
+        <v>444</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>43</v>
@@ -3028,7 +3028,7 @@
         <v>44</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>404</v>
+        <v>444</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>45</v>
@@ -3084,7 +3084,7 @@
         <v>46</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>404</v>
+        <v>444</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>47</v>
@@ -3140,7 +3140,7 @@
         <v>48</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>404</v>
+        <v>444</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>49</v>
@@ -3196,7 +3196,7 @@
         <v>50</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>404</v>
+        <v>444</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>51</v>
@@ -3252,7 +3252,7 @@
         <v>52</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>404</v>
+        <v>444</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>53</v>
@@ -3308,7 +3308,7 @@
         <v>54</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>55</v>
@@ -3364,7 +3364,7 @@
         <v>56</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>57</v>
@@ -3420,7 +3420,7 @@
         <v>58</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>59</v>
@@ -3476,7 +3476,7 @@
         <v>60</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>61</v>
@@ -3532,7 +3532,7 @@
         <v>62</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>63</v>
@@ -3588,7 +3588,7 @@
         <v>64</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>65</v>
@@ -3644,7 +3644,7 @@
         <v>66</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>67</v>
@@ -3759,7 +3759,7 @@
         <v>69</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D37">
         <v>7063</v>
@@ -3815,7 +3815,7 @@
         <v>69</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D38">
         <v>4088</v>
@@ -4095,7 +4095,7 @@
         <v>69</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D43">
         <v>4232</v>
@@ -4543,7 +4543,7 @@
         <v>82</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D51">
         <v>2671</v>
@@ -4655,7 +4655,7 @@
         <v>82</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D53">
         <v>7626</v>
@@ -4711,7 +4711,7 @@
         <v>82</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D54">
         <v>6672</v>
@@ -4879,7 +4879,7 @@
         <v>102</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D57">
         <v>18867</v>
@@ -4991,7 +4991,7 @@
         <v>102</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D59">
         <v>6039</v>
@@ -5159,7 +5159,7 @@
         <v>102</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D62">
         <v>22871</v>
@@ -5775,7 +5775,7 @@
         <v>125</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D73">
         <v>18244</v>
@@ -5943,7 +5943,7 @@
         <v>125</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D76">
         <v>30842</v>
@@ -6503,7 +6503,7 @@
         <v>149</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D86">
         <v>6270</v>
@@ -6612,7 +6612,7 @@
         <v>161</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>162</v>
@@ -6668,7 +6668,7 @@
         <v>163</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>164</v>
@@ -6724,7 +6724,7 @@
         <v>165</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>166</v>
@@ -6780,10 +6780,10 @@
         <v>167</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D91">
         <v>13737</v>
@@ -6836,10 +6836,10 @@
         <v>168</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D92">
         <v>34960</v>
@@ -6892,7 +6892,7 @@
         <v>169</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>170</v>
@@ -6948,7 +6948,7 @@
         <v>171</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>172</v>
@@ -7004,10 +7004,10 @@
         <v>173</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D95">
         <v>5666</v>
@@ -7060,7 +7060,7 @@
         <v>174</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>175</v>
@@ -7116,7 +7116,7 @@
         <v>176</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>177</v>
@@ -7172,7 +7172,7 @@
         <v>178</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>179</v>
@@ -7508,7 +7508,7 @@
         <v>190</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>191</v>
@@ -7564,7 +7564,7 @@
         <v>192</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>193</v>
@@ -7620,10 +7620,10 @@
         <v>194</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D106">
         <v>11037</v>
@@ -7676,7 +7676,7 @@
         <v>195</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>196</v>
@@ -7732,7 +7732,7 @@
         <v>197</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>198</v>
@@ -7788,10 +7788,10 @@
         <v>199</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D109">
         <v>7221</v>
@@ -7844,7 +7844,7 @@
         <v>200</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>201</v>
@@ -7900,7 +7900,7 @@
         <v>202</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>203</v>
@@ -7956,7 +7956,7 @@
         <v>204</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>205</v>
@@ -8071,7 +8071,7 @@
         <v>207</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D114">
         <v>3513</v>
@@ -8127,7 +8127,7 @@
         <v>207</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D115">
         <v>7651</v>
@@ -8183,7 +8183,7 @@
         <v>207</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D116">
         <v>6172</v>
@@ -8239,7 +8239,7 @@
         <v>207</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D117">
         <v>7882</v>
@@ -8463,7 +8463,7 @@
         <v>207</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D121">
         <v>26602</v>
@@ -8631,7 +8631,7 @@
         <v>207</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D124">
         <v>11739</v>
@@ -9135,7 +9135,7 @@
         <v>231</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D133">
         <v>10034</v>
@@ -9303,7 +9303,7 @@
         <v>231</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D136">
         <v>3565</v>
@@ -9471,7 +9471,7 @@
         <v>248</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D139">
         <v>4561</v>
@@ -9583,7 +9583,7 @@
         <v>248</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D141">
         <v>2128</v>
@@ -9975,7 +9975,7 @@
         <v>267</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D148">
         <v>5889</v>
@@ -10143,7 +10143,7 @@
         <v>273</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D151">
         <v>10041</v>
@@ -10423,7 +10423,7 @@
         <v>278</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D156">
         <v>28662</v>
@@ -10815,7 +10815,7 @@
         <v>295</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D163">
         <v>34662</v>
@@ -11039,7 +11039,7 @@
         <v>295</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D167">
         <v>20344</v>
@@ -11375,7 +11375,7 @@
         <v>295</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D173">
         <v>30817</v>
@@ -11540,7 +11540,7 @@
         <v>317</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>318</v>
@@ -11596,7 +11596,7 @@
         <v>319</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>320</v>
@@ -11652,7 +11652,7 @@
         <v>321</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>322</v>
@@ -11708,7 +11708,7 @@
         <v>323</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>324</v>
@@ -11764,10 +11764,10 @@
         <v>325</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D180">
         <v>7352</v>
@@ -11820,7 +11820,7 @@
         <v>326</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>327</v>
@@ -11876,7 +11876,7 @@
         <v>328</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>329</v>
@@ -11932,7 +11932,7 @@
         <v>330</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>331</v>
@@ -11988,10 +11988,10 @@
         <v>332</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D184">
         <v>13616</v>
@@ -12044,7 +12044,7 @@
         <v>333</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>334</v>
@@ -12663,7 +12663,7 @@
         <v>258</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D196">
         <v>213</v>
